--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="38">
   <si>
     <t>TestcaseName</t>
   </si>

--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="38">
   <si>
     <t>TestcaseName</t>
   </si>
